--- a/participants/participant_37/participant_37_task_orders.xlsx
+++ b/participants/participant_37/participant_37_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1649873115105749" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498731187782285" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498731187841694" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498731188421235" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1649873118904683" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1650291252503433" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16502912546333199" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502912546355336" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502912546980171" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16502912547939196" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1649873115069783.csv</t>
+          <t>go_stims-16502912524744043.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1649873115089797.csv</t>
+          <t>GNG_stims-16502912524874024.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16498731150907476.csv</t>
+          <t>go_stims-16502912524884043.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16498731151048017.csv</t>
+          <t>GNG_stims-1650291252501436.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16498731176150005.csv</t>
+          <t>OB-16502912537769911.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16498731177610004.csv</t>
+          <t>ZB-match_3-1650291252689762.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16498731167610025.csv</t>
+          <t>OB-16502912528607442.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16498731162400029.csv</t>
+          <t>ZB-match_1-16502912527437484.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-1649873118756158.csv</t>
+          <t>TB-16502912546106806.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_3-1649873115794999.csv</t>
+          <t>TB-16502912540160923.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16498731180791578.csv</t>
+          <t>OB-16502912531317453.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_4-16498731153479967.csv</t>
+          <t>ZB-match_5-16502912525364084.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_8-16498731151317482.csv</t>
+          <t>TB-16502912541499639.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16498731188091223.csv</t>
+          <t>MM_stims-16502912546492429.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731187861292.csv</t>
+          <t>ZM_stims-16502912546386163.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498731188251228.csv</t>
+          <t>MM_stims-16502912546810765.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731188101227.csv</t>
+          <t>ZM_stims-16502912546502457.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498731188411226.csv</t>
+          <t>MM_stims-16502912546970005.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731188261225.csv</t>
+          <t>ZM_stims-16502912546820772.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498731188886836.csv</t>
+          <t>vSAT_stims-1650291254768874.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-1649873118857123.csv</t>
+          <t>SAT_stims-16502912547271347.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498731188726852.csv</t>
+          <t>vSAT_stims-16502912547428563.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16498731188461227.csv</t>
+          <t>SAT_stims-16502912547029545.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_37/participant_37_task_orders.xlsx
+++ b/participants/participant_37/participant_37_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1650291252503433" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16502912546333199" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502912546355336" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502912546980171" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16502912547939196" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1650477869264699" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16504778711436625" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1650477871149665" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1650477871208665" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1650477871271667" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502912524744043.csv</t>
+          <t>go_stims-16504778692226634.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912524874024.csv</t>
+          <t>GNG_stims-16504778692477016.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16502912524884043.csv</t>
+          <t>go_stims-16504778692486663.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1650291252501436.csv</t>
+          <t>GNG_stims-1650477869263701.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16502912537769911.csv</t>
+          <t>OB-16504778703346655.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_3-1650291252689762.csv</t>
+          <t>OB-16504778702466648.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16502912528607442.csv</t>
+          <t>ZB-match_9-16504778696316636.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_1-16502912527437484.csv</t>
+          <t>TB-16504778709887002.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16502912546106806.csv</t>
+          <t>OB-16504778703186638.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16502912540160923.csv</t>
+          <t>TB-16504778704427018.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16502912531317453.csv</t>
+          <t>TB-16504778711206942.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_5-16502912525364084.csv</t>
+          <t>ZB-match_8-16504778698396957.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16502912541499639.csv</t>
+          <t>ZB-match_5-16504778699026983.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502912546492429.csv</t>
+          <t>MM_stims-16504778711757002.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912546386163.csv</t>
+          <t>ZM_stims-16504778711506636.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16502912546810765.csv</t>
+          <t>MM_stims-16504778711916652.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912546502457.csv</t>
+          <t>ZM_stims-16504778711767004.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502912546970005.csv</t>
+          <t>MM_stims-1650477871207698.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912546820772.csv</t>
+          <t>ZM_stims-16504778711926649.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650291254768874.csv</t>
+          <t>vSAT_stims-16504778712556987.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912547271347.csv</t>
+          <t>SAT_stims-16504778712116694.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912547428563.csv</t>
+          <t>SAT_stims-16504778712236633.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912547029545.csv</t>
+          <t>vSAT_stims-16504778712397.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_37/participant_37_task_orders.xlsx
+++ b/participants/participant_37/participant_37_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1650477869264699" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16504778711436625" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1650477871149665" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1650477871208665" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1650477871271667" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16509961635872436" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16509961668994176" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16509961668994176" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1650996166955416" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509961670273814" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16504778692226634.csv</t>
+          <t>go_stims-16509961635552087.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778692477016.csv</t>
+          <t>GNG_stims-16509961635712426.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16504778692486663.csv</t>
+          <t>go_stims-16509961635712426.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1650477869263701.csv</t>
+          <t>GNG_stims-16509961635872436.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16504778703346655.csv</t>
+          <t>ZB-match_3-16509961638832119.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16504778702466648.csv</t>
+          <t>OB-16509961642992115.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_9-16504778696316636.csv</t>
+          <t>TB-16509961666833782.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16504778709887002.csv</t>
+          <t>ZB-match_0-1650996163899211.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16504778703186638.csv</t>
+          <t>TB-16509961661553898.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16504778704427018.csv</t>
+          <t>ZB-match_9-16509961638272138.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16504778711206942.csv</t>
+          <t>OB-16509961648594167.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_8-16504778698396957.csv</t>
+          <t>OB-1650996164619382.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_5-16504778699026983.csv</t>
+          <t>TB-16509961668753805.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16504778711757002.csv</t>
+          <t>MM_stims-16509961669233847.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778711506636.csv</t>
+          <t>ZM_stims-16509961668994176.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16504778711916652.csv</t>
+          <t>MM_stims-1650996166939381.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778711767004.csv</t>
+          <t>ZM_stims-16509961669233847.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1650477871207698.csv</t>
+          <t>MM_stims-1650996166955416.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778711926649.csv</t>
+          <t>ZM_stims-1650996166939381.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778712556987.csv</t>
+          <t>vSAT_stims-16509961669874146.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778712116694.csv</t>
+          <t>SAT_stims-16509961669714131.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778712236633.csv</t>
+          <t>SAT_stims-1650996166955416.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778712397.csv</t>
+          <t>vSAT_stims-16509961670114172.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_37/participant_37_task_orders.xlsx
+++ b/participants/participant_37/participant_37_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16509961635872436" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16509961668994176" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16509961668994176" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1650996166955416" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509961670273814" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16511687659435918" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1651168768942052" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1651168768943018" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1651168768990262" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16511687690606735" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16509961635552087.csv</t>
+          <t>go_stims-16511687659076014.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961635712426.csv</t>
+          <t>GNG_stims-16511687659256709.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16509961635712426.csv</t>
+          <t>go_stims-16511687659276812.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961635872436.csv</t>
+          <t>GNG_stims-16511687659426234.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_3-16509961638832119.csv</t>
+          <t>ZB-match_0-16511687661777403.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16509961642992115.csv</t>
+          <t>OB-16511687672555246.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16509961666833782.csv</t>
+          <t>OB-16511687675015936.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_0-1650996163899211.csv</t>
+          <t>ZB-match_5-16511687672119715.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16509961661553898.csv</t>
+          <t>OB-16511687677918491.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_9-16509961638272138.csv</t>
+          <t>TB-1651168768919891.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16509961648594167.csv</t>
+          <t>ZB-match_2-165116876701092.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-1650996164619382.csv</t>
+          <t>TB-16511687682204356.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16509961668753805.csv</t>
+          <t>TB-16511687681521716.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16509961669233847.csv</t>
+          <t>MM_stims-16511687689574463.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961668994176.csv</t>
+          <t>ZM_stims-16511687689450176.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1650996166939381.csv</t>
+          <t>MM_stims-16511687689738166.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961669233847.csv</t>
+          <t>ZM_stims-16511687689574463.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1650996166955416.csv</t>
+          <t>MM_stims-16511687689892979.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1650996166939381.csv</t>
+          <t>ZM_stims-1651168768974821.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961669874146.csv</t>
+          <t>vSAT_stims-1651168769030427.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961669714131.csv</t>
+          <t>SAT_stims-16511687689941356.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-1650996166955416.csv</t>
+          <t>SAT_stims-16511687690050952.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961670114172.csv</t>
+          <t>vSAT_stims-16511687690447617.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_37/participant_37_task_orders.xlsx
+++ b/participants/participant_37/participant_37_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16511687659435918" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1651168768942052" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1651168768943018" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1651168768990262" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16511687690606735" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1651255589585369" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16512555928877506" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16512555928877506" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512555929346275" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16512555929971282" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16511687659076014.csv</t>
+          <t>go_stims-1651255589554117.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687659256709.csv</t>
+          <t>GNG_stims-16512555895697489.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16511687659276812.csv</t>
+          <t>go_stims-16512555895697489.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687659426234.csv</t>
+          <t>GNG_stims-1651255589585369.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_0-16511687661777403.csv</t>
+          <t>TB-16512555920235386.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16511687672555246.csv</t>
+          <t>TB-16512555913047235.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16511687675015936.csv</t>
+          <t>ZB-match_6-16512555900254197.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_5-16511687672119715.csv</t>
+          <t>OB-16512555912874486.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16511687677918491.csv</t>
+          <t>ZB-match_1-1651255589663489.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-1651168768919891.csv</t>
+          <t>ZB-match_3-1651255589854782.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_2-165116876701092.csv</t>
+          <t>OB-16512555902786858.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16511687682204356.csv</t>
+          <t>OB-16512555906413271.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16511687681521716.csv</t>
+          <t>TB-1651255592872124.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16511687689574463.csv</t>
+          <t>MM_stims-16512555929033782.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687689450176.csv</t>
+          <t>ZM_stims-16512555928877506.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16511687689738166.csv</t>
+          <t>MM_stims-16512555929190018.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687689574463.csv</t>
+          <t>ZM_stims-16512555929033782.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16511687689892979.csv</t>
+          <t>MM_stims-16512555929346275.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1651168768974821.csv</t>
+          <t>ZM_stims-16512555929190018.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651168769030427.csv</t>
+          <t>SAT_stims-16512555929346275.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687689941356.csv</t>
+          <t>vSAT_stims-16512555929815106.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687690050952.csv</t>
+          <t>SAT_stims-1651255592950252.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511687690447617.csv</t>
+          <t>vSAT_stims-16512555929658785.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_37/participant_37_task_orders.xlsx
+++ b/participants/participant_37/participant_37_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1651255589585369" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16512555928877506" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16512555928877506" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512555929346275" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16512555929971282" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="NB_TO-16515890219742167" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TOL_TO-16515890220210583" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16515890220210583" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_TO-16515890220523074" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1651589022114808" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1651255589554117.csv</t>
+          <t>TB-16515890217845197.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555895697489.csv</t>
+          <t>OB-16515890206829958.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16512555895697489.csv</t>
+          <t>OB-16515890205557156.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,57 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1651255589585369.csv</t>
+          <t>TB-16515890219585898.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ZB-match_8-1651589020140042.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ZB-match_0-1651589019852792.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TB-16515890213916445.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>OB-16515890207475772.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ZB-match_6-16515890200932014.csv</t>
         </is>
       </c>
     </row>
@@ -495,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +566,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16512555920235386.csv</t>
+          <t>MM_stims-16515890219898074.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +576,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16512555913047235.csv</t>
+          <t>ZM_stims-16515890219742167.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +586,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_6-16512555900254197.csv</t>
+          <t>MM_stims-16515890220054326.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +596,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16512555912874486.csv</t>
+          <t>ZM_stims-16515890219898074.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_1-1651255589663489.csv</t>
+          <t>MM_stims-16515890220210583.csv</t>
         </is>
       </c>
     </row>
@@ -566,37 +616,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_3-1651255589854782.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>OB-16512555902786858.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>OB-16512555906413271.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>TB-1651255592872124.csv</t>
+          <t>ZM_stims-16515890220054326.csv</t>
         </is>
       </c>
     </row>
@@ -657,7 +677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,7 +698,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16512555929033782.csv</t>
+          <t>go_stims-16515890220210583.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +708,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16512555928877506.csv</t>
+          <t>GNG_stims-16515890220366833.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +718,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16512555929190018.csv</t>
+          <t>go_stims-16515890220366833.csv</t>
         </is>
       </c>
     </row>
@@ -708,27 +728,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16512555929033782.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555929346275.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555929190018.csv</t>
+          <t>GNG_stims-16515890220523074.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16512555929346275.csv</t>
+          <t>vSAT_stims-16515890220835586.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512555929815106.csv</t>
+          <t>vSAT_stims-16515890220991824.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-1651255592950252.csv</t>
+          <t>SAT_stims-16515890220523074.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512555929658785.csv</t>
+          <t>SAT_stims-16515890220679328.csv</t>
         </is>
       </c>
     </row>
